--- a/lab2/test-result-data.xlsx
+++ b/lab2/test-result-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xsun2001/Documents/projects/datastructure/lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A0835E7-717C-CA4C-9F5C-C96181EEBBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68C52C1-C197-B744-A169-3E421A79DBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="1240" windowWidth="28240" windowHeight="17440" xr2:uid="{03E1C58C-2CC2-144A-87F2-3C42A2717D4B}"/>
+    <workbookView xWindow="840" yWindow="2840" windowWidth="28240" windowHeight="17440" xr2:uid="{03E1C58C-2CC2-144A-87F2-3C42A2717D4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="18">
   <si>
     <t>Insert</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -97,6 +97,14 @@
   </si>
   <si>
     <t>hdu.txt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>collisions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVG.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -493,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DF359E-9052-3141-87A8-E8C6D664DF98}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -893,31 +901,31 @@
         <v>0.11</v>
       </c>
       <c r="D13">
-        <v>1.44</v>
+        <v>0.11</v>
       </c>
       <c r="F13" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H13">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I13">
-        <v>4.59</v>
+        <v>0.13</v>
       </c>
       <c r="K13" t="s">
         <v>5</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="M13">
+        <v>0.11</v>
+      </c>
+      <c r="N13">
         <v>0.12</v>
-      </c>
-      <c r="N13">
-        <v>4.08</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -925,37 +933,37 @@
         <v>6</v>
       </c>
       <c r="B14" s="3">
-        <v>1.85</v>
+        <v>2.77</v>
       </c>
       <c r="C14">
         <v>0.11</v>
       </c>
       <c r="D14">
-        <v>1.66</v>
+        <v>0.12</v>
       </c>
       <c r="F14" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="3">
-        <v>5.37</v>
+        <v>8.83</v>
       </c>
       <c r="H14">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I14">
-        <v>3.93</v>
+        <v>0.12</v>
       </c>
       <c r="K14" t="s">
         <v>6</v>
       </c>
       <c r="L14" s="3">
-        <v>4.1399999999999997</v>
+        <v>2.16</v>
       </c>
       <c r="M14">
         <v>0.11</v>
       </c>
       <c r="N14">
-        <v>3.43</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -966,10 +974,10 @@
         <v>8</v>
       </c>
       <c r="C15">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="D15">
-        <v>1.36</v>
+        <v>0.36</v>
       </c>
       <c r="F15" t="s">
         <v>7</v>
@@ -978,10 +986,10 @@
         <v>8</v>
       </c>
       <c r="H15">
-        <v>2.4700000000000002</v>
+        <v>2.69</v>
       </c>
       <c r="I15">
-        <v>4.66</v>
+        <v>2.65</v>
       </c>
       <c r="K15" t="s">
         <v>7</v>
@@ -990,10 +998,126 @@
         <v>8</v>
       </c>
       <c r="M15">
-        <v>1.65</v>
+        <v>0.21</v>
       </c>
       <c r="N15">
-        <v>3.42</v>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <v>10</v>
+      </c>
+      <c r="L17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>450597</v>
+      </c>
+      <c r="C18">
+        <v>463410</v>
+      </c>
+      <c r="D18">
+        <v>459444</v>
+      </c>
+      <c r="E18">
+        <v>476410</v>
+      </c>
+      <c r="F18">
+        <v>465330</v>
+      </c>
+      <c r="G18">
+        <v>473987</v>
+      </c>
+      <c r="H18">
+        <v>474235</v>
+      </c>
+      <c r="I18">
+        <v>457708</v>
+      </c>
+      <c r="J18">
+        <v>479417</v>
+      </c>
+      <c r="K18">
+        <v>461549</v>
+      </c>
+      <c r="L18">
+        <f>AVERAGE(B18:K18)</f>
+        <v>466208.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>447863</v>
+      </c>
+      <c r="C19">
+        <v>461579</v>
+      </c>
+      <c r="D19">
+        <v>459663</v>
+      </c>
+      <c r="E19">
+        <v>476711</v>
+      </c>
+      <c r="F19">
+        <v>462900</v>
+      </c>
+      <c r="G19">
+        <v>469449</v>
+      </c>
+      <c r="H19">
+        <v>472563</v>
+      </c>
+      <c r="I19">
+        <v>454139</v>
+      </c>
+      <c r="J19">
+        <v>478113</v>
+      </c>
+      <c r="K19">
+        <v>462234</v>
+      </c>
+      <c r="L19">
+        <f>AVERAGE(B19:K19)</f>
+        <v>464521.4</v>
       </c>
     </row>
   </sheetData>
